--- a/エネマネ試作/PB_/PB_xlsx/PB_v_01.xlsx
+++ b/エネマネ試作/PB_/PB_xlsx/PB_v_01.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouho\Documents\エネマネ試作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\solar-energy-management-\エネマネ試作\PB_\PB_xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B017B4C0-4060-4E4A-AAA1-681BD5CBF638}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA5F2A6A-E544-4A96-B839-6FECE6AD46E9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{5EB56C68-B359-4F3A-A627-4E71E8172A05}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5EB56C68-B359-4F3A-A627-4E71E8172A05}"/>
   </bookViews>
   <sheets>
     <sheet name="PB,ΣPB-ｔ" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -573,18 +574,18 @@
   <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" customWidth="1"/>
-    <col min="6" max="6" width="12.58203125" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -616,7 +617,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -651,7 +652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -674,7 +675,7 @@
         <v>3075.6998740530589</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -697,7 +698,7 @@
         <v>2192.1498110795883</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -719,8 +720,11 @@
         <f>5000+SUM($E$2:E5)</f>
         <v>1359.1997481061176</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -743,7 +747,7 @@
         <v>575.34968513264721</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -766,7 +770,7 @@
         <v>-161.10037784082306</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -789,7 +793,7 @@
         <v>-851.95044081429387</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -812,7 +816,7 @@
         <v>-1499.1005037877649</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -835,7 +839,7 @@
         <v>-2104.4505667612357</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -858,7 +862,7 @@
         <v>-2670.2006297347061</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -881,7 +885,7 @@
         <v>-3198.3506927081762</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -904,7 +908,7 @@
         <v>-3691.2007556816461</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -927,7 +931,7 @@
         <v>-4151.1508186551164</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -950,7 +954,7 @@
         <v>-4580.5008816285863</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -973,7 +977,7 @@
         <v>-4981.7509446020576</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>-5357.3010075755283</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>-5709.7510705489985</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1042,7 +1046,7 @@
         <v>-6041.8011335224692</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="20" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1065,7 +1069,7 @@
         <v>-6355.9511964959402</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="21" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1088,7 +1092,7 @@
         <v>-6655.0012594694108</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="22" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>-6941.6513224428818</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1134,7 +1138,7 @@
         <v>-7218.6013854163521</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="24" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1157,7 +1161,7 @@
         <v>-7488.5514483898223</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="25" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1180,7 +1184,7 @@
         <v>-7754.3015113632937</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="26" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>-8018.751574336764</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="27" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1226,7 +1230,7 @@
         <v>-8284.5016373102353</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="28" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1249,7 +1253,7 @@
         <v>-8554.4517002837056</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="29" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1272,7 +1276,7 @@
         <v>-8831.4017632571758</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="30" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>-9117.9518262306465</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="31" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1318,7 +1322,7 @@
         <v>-9417.0018892041171</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="32" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1341,7 +1345,7 @@
         <v>-9731.1519521775881</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="33" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1364,7 +1368,7 @@
         <v>-10063.102015151058</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>-10415.552078124529</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>-10791.102141097999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>-11192.25220407147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1456,7 +1460,7 @@
         <v>-11621.602267044942</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1479,7 +1483,7 @@
         <v>-12081.452330018412</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="39" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>-12574.302392991882</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1525,7 +1529,7 @@
         <v>-13102.452455965351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1548,7 +1552,7 @@
         <v>-13668.10251893882</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>-14273.45258191229</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1594,7 +1598,7 @@
         <v>-14920.602644885759</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1617,7 +1621,7 @@
         <v>-15611.452707859229</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="45" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1640,7 +1644,7 @@
         <v>-16347.902770832701</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1663,7 +1667,7 @@
         <v>-17131.752833806171</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="47" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1686,7 +1690,7 @@
         <v>-17964.602896779641</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="48" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1709,7 +1713,7 @@
         <v>-18848.052959753113</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="49" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1732,7 +1736,7 @@
         <v>-19783.503022726585</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="50" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>-20772.253085700057</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="51" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1778,7 +1782,7 @@
         <v>-21815.303148673527</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="52" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>-22913.653211646997</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="53" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1824,7 +1828,7 @@
         <v>-24067.903274620468</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="54" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1847,7 +1851,7 @@
         <v>-25278.65333759394</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="55" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1870,7 +1874,7 @@
         <v>-26545.903400567411</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="56" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1896,5 +1900,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>